--- a/TestSuites/UploadExcel/SAP_OTC_Regression.xlsx
+++ b/TestSuites/UploadExcel/SAP_OTC_Regression.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4003728505</t>
+          <t>4003726939</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0000000143677159</t>
+          <t>0000000143709375</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9300210232</t>
+          <t>9300210550</t>
         </is>
       </c>
     </row>
